--- a/src/test/resources/tutorial/excluded-Header-Single-Student.xlsx
+++ b/src/test/resources/tutorial/excluded-Header-Single-Student.xlsx
@@ -69,11 +69,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
